--- a/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
+++ b/2-hard-in-excel-easy-in-python/data-visualization/hard-excel-easy-python-data-viz-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\2-hard-in-excel-easy-in-python\data-visualization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\2-hard-in-excel-easy-in-python\data-visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E208948D-55DB-4DD1-80D4-E088D6ED49BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75DD89-AAC6-46E7-B27F-24EE6D2BCD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="3" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="11">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -72,7 +72,63 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
@@ -82,7 +138,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="11">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -91,6 +147,30 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -739,7 +819,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
   <a r="12" c="8">
     <v t="s">mpg</v>
     <v t="s">cylinders</v>
@@ -842,11 +922,35 @@
     <v>593</v>
     <v>453</v>
   </a>
+  <a r="2">
+    <v>985</v>
+    <v>986</v>
+  </a>
+  <a r="2">
+    <v>1093</v>
+    <v>986</v>
+  </a>
+  <a r="2">
+    <v>563</v>
+    <v>432</v>
+  </a>
+  <a r="2">
+    <v>903</v>
+    <v>290</v>
+  </a>
+  <a r="2">
+    <v>890</v>
+    <v>1490</v>
+  </a>
+  <a r="2">
+    <v>965</v>
+    <v>290</v>
+  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="40">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -880,17 +984,176 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F4752394520&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=593x453 at 0x7F06DC8CAB80&gt;</v>
     <v>5</v>
   </rv>
-  <rv s="5">
-    <v>14</v>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>7</v>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=985x986 at 0x7F06DBC92A30&gt;</v>
+    <v>9</v>
+  </rv>
+  <rv s="3">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>11</v>
+    <v>12</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1093x986 at 0x7F06D94D8FD0&gt;</v>
+    <v>13</v>
+  </rv>
+  <rv s="3">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>15</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F06D9654040&gt;</v>
+    <v>17</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>19</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F06D944D3A0&gt;</v>
+    <v>20</v>
+  </rv>
+  <rv s="3">
+    <v>5</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>22</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F06D9CB34F0&gt;</v>
+    <v>23</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+    <v>9</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>25</v>
+    <v>16</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x432 at 0x7F06D9C1E8E0&gt;</v>
+    <v>26</v>
+  </rv>
+  <rv s="3">
+    <v>7</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>28</v>
+    <v>29</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=903x290 at 0x7F06D9239E20&gt;</v>
+    <v>30</v>
+  </rv>
+  <rv s="3">
+    <v>8</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>32</v>
+    <v>33</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=890x1490 at 0x7F06D829E460&gt;</v>
+    <v>34</v>
+  </rv>
+  <rv s="3">
+    <v>9</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>2</v>
+    <v>36</v>
+    <v>37</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=965x290 at 0x7F06D81D2D30&gt;</v>
+    <v>38</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -914,9 +1177,6 @@
     <k n="_Format" t="spb"/>
     <k n="image" t="r"/>
     <k n="size" t="r"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -975,6 +1235,15 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
 </richValueRels>
 </file>
 
@@ -1314,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -11706,13 +11975,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <f t="array" ref="A1">_xlfn._xlws.PY(2,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A40" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A40" ca="1">_xlfn._xlws.PY(3,1)</f>
+      <c r="A40" t="e" cm="1" vm="4">
+        <f t="array" ref="A40">_xlfn._xlws.PY(3,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11731,14 +12000,14 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(4,1)</f>
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(4,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A19" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A19" ca="1">_xlfn._xlws.PY(5,1)</f>
+      <c r="A19" t="e" cm="1" vm="6">
+        <f t="array" ref="A19">_xlfn._xlws.PY(5,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11752,19 +12021,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDAE02-3DF9-43D4-83AA-007C1A765485}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(6,1)</f>
+      <c r="A1" t="e" cm="1" vm="7">
+        <f t="array" ref="A1">_xlfn._xlws.PY(6,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A18" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A18" ca="1">_xlfn._xlws.PY(7,1)</f>
+      <c r="A18" t="e" cm="1" vm="8">
+        <f t="array" ref="A18">_xlfn._xlws.PY(7,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11786,20 +12055,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(8,1)</f>
+      <c r="A1" t="e" cm="1" vm="9">
+        <f t="array" ref="A1">_xlfn._xlws.PY(8,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A11" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A11" ca="1">_xlfn._xlws.PY(9,1)</f>
+      <c r="A11" t="e" cm="1" vm="10">
+        <f t="array" ref="A11">_xlfn._xlws.PY(9,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A67" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A67" ca="1">_xlfn._xlws.PY(10,1)</f>
+      <c r="A67" t="e" cm="1" vm="11">
+        <f t="array" ref="A67">_xlfn._xlws.PY(10,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
